--- a/app/Licenciatura_em_Cartografia_e_Pesquisa_Geologica.xlsx
+++ b/app/Licenciatura_em_Cartografia_e_Pesquisa_Geologica.xlsx
@@ -27,16 +27,15 @@
     <sheet name="20150623" sheetId="17" r:id="rId20"/>
     <sheet name="20150615" sheetId="18" r:id="rId21"/>
     <sheet name="20150613" sheetId="19" r:id="rId22"/>
-    <sheet name="20154389" sheetId="20" r:id="rId23"/>
-    <sheet name="20150619" sheetId="21" r:id="rId24"/>
-    <sheet name="20150607" sheetId="22" r:id="rId25"/>
-    <sheet name="20150620" sheetId="23" r:id="rId26"/>
-    <sheet name="20150608" sheetId="24" r:id="rId27"/>
-    <sheet name="20150618" sheetId="25" r:id="rId28"/>
-    <sheet name="20150624" sheetId="26" r:id="rId29"/>
-    <sheet name="20150621" sheetId="27" r:id="rId30"/>
-    <sheet name="Sheet2" sheetId="28" r:id="rId31"/>
-    <sheet name="Sheet3" sheetId="29" r:id="rId32"/>
+    <sheet name="20150619" sheetId="20" r:id="rId23"/>
+    <sheet name="20150607" sheetId="21" r:id="rId24"/>
+    <sheet name="20150620" sheetId="22" r:id="rId25"/>
+    <sheet name="20150608" sheetId="23" r:id="rId26"/>
+    <sheet name="20150618" sheetId="24" r:id="rId27"/>
+    <sheet name="20150624" sheetId="25" r:id="rId28"/>
+    <sheet name="20150621" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -193,9 +192,6 @@
     <t>Adelia Bombinha Chauque</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -232,9 +228,6 @@
     <t>GlÓria Tivane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -262,9 +255,6 @@
     <t>Raquelina Tovela</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101754352P</t>
   </si>
   <si>
@@ -289,9 +279,6 @@
     <t>Teresa Mabor</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070100634076A</t>
   </si>
   <si>
@@ -316,9 +303,6 @@
     <t>Gloria   Salimo</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>030102158889J   848371611</t>
   </si>
   <si>
@@ -343,9 +327,6 @@
     <t>Candida Alface Luis</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040102665680S</t>
   </si>
   <si>
@@ -370,9 +351,6 @@
     <t>Gracieta Alberto Gochene</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110502384050P</t>
   </si>
   <si>
@@ -397,9 +375,6 @@
     <t xml:space="preserve">Palmira Augusto Mavuie </t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>100506292391F</t>
   </si>
   <si>
@@ -469,9 +444,6 @@
     <t>CÉlia Albertina Sitoe</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100591212P</t>
   </si>
   <si>
@@ -589,9 +561,6 @@
     <t>Rosa Julio Lipangue</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110101149564Q</t>
   </si>
   <si>
@@ -640,130 +609,121 @@
     <t>Colegio Kitabu</t>
   </si>
   <si>
-    <t>Dimande</t>
-  </si>
-  <si>
-    <t>Lennon dos Santos</t>
+    <t>Cuco</t>
+  </si>
+  <si>
+    <t>Alagio Castrto</t>
+  </si>
+  <si>
+    <t>1990-03-08</t>
+  </si>
+  <si>
+    <t>Castro S.  Cuco</t>
+  </si>
+  <si>
+    <t>Maria Francisco Cuco</t>
+  </si>
+  <si>
+    <t>110101315549M</t>
+  </si>
+  <si>
+    <t>+258842024186</t>
+  </si>
+  <si>
+    <t>Cucheque</t>
+  </si>
+  <si>
+    <t>Marcelino Justino João Cucheque</t>
+  </si>
+  <si>
+    <t>1992-08-29</t>
+  </si>
+  <si>
+    <t>Justino JosÉ Cucheque</t>
+  </si>
+  <si>
+    <t>Rosalina Luis JoÃo</t>
+  </si>
+  <si>
+    <t>070100200735B</t>
+  </si>
+  <si>
+    <t>+258849566298</t>
+  </si>
+  <si>
+    <t>Chembeze</t>
+  </si>
+  <si>
+    <t>LetÍcia MÉrcia JosÉ</t>
+  </si>
+  <si>
+    <t>1997-06-24</t>
+  </si>
+  <si>
+    <t>JosÉ Domingos D. L. Chembeze</t>
+  </si>
+  <si>
+    <t>Idalina N. Chuquelane</t>
+  </si>
+  <si>
+    <t>110100239052B</t>
+  </si>
+  <si>
+    <t>+258826168501</t>
+  </si>
+  <si>
+    <t>Buque</t>
+  </si>
+  <si>
+    <t>ElvÂnia Da GlÓria SÉrgio</t>
+  </si>
+  <si>
+    <t>1997-10-26</t>
+  </si>
+  <si>
+    <t>SÉrgio Buque</t>
+  </si>
+  <si>
+    <t>VictÓria Massangal</t>
+  </si>
+  <si>
+    <t>110102779048P</t>
+  </si>
+  <si>
+    <t>+258825515927</t>
+  </si>
+  <si>
+    <t>Buene</t>
+  </si>
+  <si>
+    <t>Richeiro Joao</t>
+  </si>
+  <si>
+    <t>1996-09-11</t>
+  </si>
+  <si>
+    <t>Joao Buene</t>
+  </si>
+  <si>
+    <t>Otilia Manhica</t>
+  </si>
+  <si>
+    <t>100300588421A</t>
+  </si>
+  <si>
+    <t>+258822534710</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Joaquim Chissano</t>
+  </si>
+  <si>
+    <t>Bonde</t>
+  </si>
+  <si>
+    <t>Clauricio David</t>
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>Cuco</t>
-  </si>
-  <si>
-    <t>Alagio Castrto</t>
-  </si>
-  <si>
-    <t>1990-03-08</t>
-  </si>
-  <si>
-    <t>Castro S.  Cuco</t>
-  </si>
-  <si>
-    <t>Maria Francisco Cuco</t>
-  </si>
-  <si>
-    <t>110101315549M</t>
-  </si>
-  <si>
-    <t>+258842024186</t>
-  </si>
-  <si>
-    <t>Cucheque</t>
-  </si>
-  <si>
-    <t>Marcelino Justino João Cucheque</t>
-  </si>
-  <si>
-    <t>1992-08-29</t>
-  </si>
-  <si>
-    <t>Justino JosÉ Cucheque</t>
-  </si>
-  <si>
-    <t>Rosalina Luis JoÃo</t>
-  </si>
-  <si>
-    <t>070100200735B</t>
-  </si>
-  <si>
-    <t>+258849566298</t>
-  </si>
-  <si>
-    <t>Chembeze</t>
-  </si>
-  <si>
-    <t>LetÍcia MÉrcia JosÉ</t>
-  </si>
-  <si>
-    <t>1997-06-24</t>
-  </si>
-  <si>
-    <t>JosÉ Domingos D. L. Chembeze</t>
-  </si>
-  <si>
-    <t>Idalina N. Chuquelane</t>
-  </si>
-  <si>
-    <t>110100239052B</t>
-  </si>
-  <si>
-    <t>+258826168501</t>
-  </si>
-  <si>
-    <t>Buque</t>
-  </si>
-  <si>
-    <t>ElvÂnia Da GlÓria SÉrgio</t>
-  </si>
-  <si>
-    <t>1997-10-26</t>
-  </si>
-  <si>
-    <t>SÉrgio Buque</t>
-  </si>
-  <si>
-    <t>VictÓria Massangal</t>
-  </si>
-  <si>
-    <t>110102779048P</t>
-  </si>
-  <si>
-    <t>+258825515927</t>
-  </si>
-  <si>
-    <t>Buene</t>
-  </si>
-  <si>
-    <t>Richeiro Joao</t>
-  </si>
-  <si>
-    <t>1996-09-11</t>
-  </si>
-  <si>
-    <t>Joao Buene</t>
-  </si>
-  <si>
-    <t>Otilia Manhica</t>
-  </si>
-  <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
-    <t>100300588421A</t>
-  </si>
-  <si>
-    <t>+258822534710</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Joaquim Chissano</t>
-  </si>
-  <si>
-    <t>Bonde</t>
-  </si>
-  <si>
-    <t>Clauricio David</t>
   </si>
   <si>
     <t>Abacar</t>
@@ -2047,7 +2007,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2063,7 +2023,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2079,7 +2039,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2095,7 +2055,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2111,7 +2071,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2126,9 +2086,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2136,7 +2094,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2147,7 +2105,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2156,7 +2114,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2168,7 +2126,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2176,7 +2134,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2272,7 +2230,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2315,7 +2273,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2642,7 +2600,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2658,7 +2616,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2674,7 +2632,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2690,7 +2648,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2706,7 +2664,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2721,9 +2679,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2731,7 +2687,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2742,7 +2698,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2751,7 +2707,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2763,7 +2719,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2771,7 +2727,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2867,7 +2823,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2910,7 +2866,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3237,7 +3193,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3253,7 +3209,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3269,7 +3225,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3285,7 +3241,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3301,7 +3257,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3316,9 +3272,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3326,7 +3280,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3337,7 +3291,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3346,7 +3300,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3358,7 +3312,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3366,7 +3320,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3462,7 +3416,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3505,7 +3459,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3832,7 +3786,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3848,7 +3802,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3864,7 +3818,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3880,7 +3834,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3896,7 +3850,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3911,9 +3865,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3921,7 +3873,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3932,7 +3884,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3941,7 +3893,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3953,7 +3905,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3961,7 +3913,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4057,7 +4009,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4100,7 +4052,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4427,7 +4379,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4443,7 +4395,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4459,7 +4411,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4475,7 +4427,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4491,7 +4443,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4506,9 +4458,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4516,7 +4466,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4527,7 +4477,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4536,7 +4486,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4548,7 +4498,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4556,7 +4506,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4652,7 +4602,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4695,7 +4645,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5022,7 +4972,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5038,7 +4988,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5054,7 +5004,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5070,7 +5020,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5086,7 +5036,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5101,9 +5051,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5111,7 +5059,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5122,7 +5070,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5131,7 +5079,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5143,7 +5091,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5151,7 +5099,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5247,7 +5195,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5290,7 +5238,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5617,7 +5565,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5633,7 +5581,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5649,7 +5597,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5665,7 +5613,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5681,7 +5629,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5696,9 +5644,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5706,7 +5652,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5717,7 +5663,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5726,7 +5672,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5738,7 +5684,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5746,7 +5692,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5842,7 +5788,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5885,7 +5831,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6212,7 +6158,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6228,7 +6174,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6244,7 +6190,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6260,7 +6206,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6276,7 +6222,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6291,9 +6237,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6301,7 +6245,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6312,7 +6256,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6321,7 +6265,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6333,7 +6277,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6341,7 +6285,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6437,7 +6381,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6480,7 +6424,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6807,7 +6751,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6823,7 +6767,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6839,7 +6783,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6855,7 +6799,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6871,7 +6815,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6886,9 +6830,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6896,7 +6838,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6907,7 +6849,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6916,7 +6858,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6928,7 +6870,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6936,7 +6878,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7032,7 +6974,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7075,7 +7017,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7402,7 +7344,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7418,7 +7360,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7434,7 +7376,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7450,7 +7392,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7466,7 +7408,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7481,9 +7423,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7491,7 +7431,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7502,7 +7442,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7511,7 +7451,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7523,7 +7463,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7531,7 +7471,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7627,7 +7567,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7670,7 +7610,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8076,9 +8016,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8086,7 +8024,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8097,7 +8035,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8106,7 +8044,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8118,7 +8056,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8126,7 +8064,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8222,7 +8160,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8265,7 +8203,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8516,7 +8454,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -8566,7 +8506,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154389</v>
+        <v>20150619</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8590,7 +8530,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8606,7 +8546,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8621,7 +8561,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8635,7 +8577,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8649,7 +8593,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8670,7 +8616,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8679,14 +8627,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8696,13 +8648,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8797,7 +8753,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8823,7 +8779,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8837,7 +8795,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9139,7 +9099,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150619</v>
+        <v>20150607</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9163,7 +9123,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9179,7 +9139,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9195,7 +9155,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9211,7 +9171,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9227,7 +9187,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9242,9 +9202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9252,7 +9210,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9263,7 +9221,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9272,7 +9230,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9284,7 +9242,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9292,7 +9250,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9388,7 +9346,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9415,7 +9373,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9431,7 +9389,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9734,7 +9692,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150607</v>
+        <v>20150620</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9758,7 +9716,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9774,7 +9732,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9790,7 +9748,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9806,7 +9764,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9822,7 +9780,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9837,9 +9795,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9847,7 +9803,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9858,7 +9814,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9867,7 +9823,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9879,7 +9835,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9887,7 +9843,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9983,7 +9939,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10010,7 +9966,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10026,7 +9982,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10329,7 +10285,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150620</v>
+        <v>20150608</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10353,7 +10309,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10369,7 +10325,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10385,7 +10341,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10401,7 +10357,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10417,7 +10373,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10432,9 +10388,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10442,7 +10396,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10453,7 +10407,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10462,7 +10416,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10474,7 +10428,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10482,7 +10436,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10578,7 +10532,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10621,7 +10575,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10924,7 +10878,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150608</v>
+        <v>20150618</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10948,7 +10902,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10964,7 +10918,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10980,7 +10934,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10996,7 +10950,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11012,7 +10966,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11027,9 +10981,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11037,7 +10989,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11048,7 +11000,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11057,7 +11009,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11069,7 +11021,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11077,7 +11029,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11173,7 +11125,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11200,7 +11152,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11216,7 +11168,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11519,7 +11471,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150618</v>
+        <v>20150624</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11543,7 +11495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11559,7 +11511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11574,9 +11526,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>231</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11590,9 +11540,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>232</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11606,9 +11554,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11622,18 +11568,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>234</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -11642,18 +11584,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -11663,17 +11601,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -11768,7 +11702,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11794,9 +11728,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -11810,9 +11742,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>237</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12114,7 +12044,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150624</v>
+        <v>20150621</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12138,7 +12068,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12154,7 +12084,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12169,7 +12099,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>229</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12183,7 +12115,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>230</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12197,7 +12131,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>231</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12218,7 +12154,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12227,14 +12165,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12244,13 +12186,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12345,7 +12291,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12371,7 +12317,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12385,7 +12333,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12587,601 +12537,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150621</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -13205,7 +12560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13362,7 +12717,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13378,7 +12733,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13394,7 +12749,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13410,7 +12765,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13426,7 +12781,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13441,9 +12796,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13451,7 +12804,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13462,7 +12815,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13471,7 +12824,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13483,7 +12836,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13491,7 +12844,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13587,7 +12940,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13630,7 +12983,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13957,7 +13310,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13973,7 +13326,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13989,7 +13342,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14005,7 +13358,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14021,7 +13374,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14036,9 +13389,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14046,7 +13397,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14057,7 +13408,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14066,7 +13417,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14078,7 +13429,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14086,7 +13437,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14182,7 +13533,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14225,7 +13576,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14552,7 +13903,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14568,7 +13919,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14584,7 +13935,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14600,7 +13951,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14616,7 +13967,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14631,9 +13982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14641,7 +13990,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14652,7 +14001,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14661,7 +14010,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14673,7 +14022,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14681,7 +14030,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14777,7 +14126,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14820,7 +14169,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15147,7 +14496,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15163,7 +14512,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15179,7 +14528,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15195,7 +14544,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15211,7 +14560,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15226,9 +14575,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15236,7 +14583,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15247,7 +14594,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15256,7 +14603,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15268,7 +14615,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15276,7 +14623,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15372,7 +14719,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15415,7 +14762,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15742,7 +15089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15758,7 +15105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15774,7 +15121,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15790,7 +15137,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15806,7 +15153,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15821,9 +15168,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15831,7 +15176,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15842,7 +15187,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15851,7 +15196,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15863,7 +15208,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15871,7 +15216,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15967,7 +15312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16010,7 +15355,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16337,7 +15682,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16353,7 +15698,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16369,7 +15714,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16385,7 +15730,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16401,7 +15746,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16416,9 +15761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16426,7 +15769,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16437,7 +15780,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16446,7 +15789,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16458,7 +15801,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16466,7 +15809,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16562,7 +15905,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16605,7 +15948,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16932,7 +16275,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16948,7 +16291,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16964,7 +16307,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16980,7 +16323,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16996,7 +16339,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17011,9 +16354,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17021,7 +16362,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17032,7 +16373,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17041,7 +16382,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17053,7 +16394,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17061,7 +16402,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17157,7 +16498,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17200,7 +16541,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
